--- a/network_analysis_sandbox/data/nodes_tech.xlsx
+++ b/network_analysis_sandbox/data/nodes_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A53"/>
+  <dimension ref="A1:A63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,17 +386,17 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -406,222 +406,272 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>52</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>75</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/network_analysis_sandbox/data/nodes_tech.xlsx
+++ b/network_analysis_sandbox/data/nodes_tech.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,42 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>home_field</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>practice_area</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>advanced_analyses</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>software</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>aspirations</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>new</t>
         </is>
       </c>
     </row>
@@ -368,310 +403,435 @@
       <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Graduate level econometrics, Certification in Data Science with R</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>R, Excel</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pushing quality data products out to our clients</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Stata and R training received during graduate school.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Multiple regressions, web scraping, geospatial analysis in R and Stata</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Understand basic Stata and R.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Aspire to be proficient in R and Stata; Machine learning, advanced usage of Stata/R</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>R (classes in my master's/undergrad), ATLAS.ti, data visualization within Excel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I have a baseline understanding of R but have yet to use it in a professional environment and would love to be able to do so in order to enhance my abilities.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>confidently saying that I am advanced in data analytics and visualization</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4 years of stats, econ, and methods, multiple papers, publications and I have taught methods, and a ton of primary work involving empirical hypotheses testing. I took a Big Data analytics course at MIT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>mlogit, OLS, 2SLS, chi-square, t-tests, and used to do a lot of spatial joins in ArcGIS for analysis in Stata using large data sets from EPA, surveys, EJ. I have done non-market valuation studies using contingent valuation method and back in the day did cosine modeling for hydrodynamic models for dolphin swimming under a navy contract</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>qual and quant, SPSS, Stata, NVivo, Qualtrics, MaxQDA, ArcGIS, although running models or making maps I have not done a in while, but I have several years of it.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>how to apply modern big data analytics to evaluation</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LCA, FMM, CFI, path analysis, SEM, latent trajectory analysis, hierarchical cluster analysis, stepwise regression (shame on me)...</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comfortable with Stata, very rusty with python</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>It would be fun to learn more about forecasting models for time-series data (like ARIMA, ARCH...) from someone at MSI, at some point study Lasso...</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None. Just basic descriptive statistics</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Some competency in R.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>I would love to have a better understanding of different analytical techniques and when it is most appropriate to use them.</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Better understand what's out there and what we might be able to offer clients or describe in bids</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GiSP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Geospatial regression...</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Geospatial SPSS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Expand AI knowledge</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Limited experience in grad school with data analysis</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>R, Stata, Excel</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>69</v>
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>R, Stata, Excel</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Excel, Atlas.ti</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>70</v>
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
         <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Home office</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
       </c>
     </row>
   </sheetData>
